--- a/data/BCM Model Test.xlsx
+++ b/data/BCM Model Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>Forecasted</t>
   </si>
@@ -58,8 +58,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -110,7 +111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -118,6 +119,7 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -569,24 +571,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100977280"/>
-        <c:axId val="100979072"/>
+        <c:axId val="132512384"/>
+        <c:axId val="132526464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="100977280"/>
+        <c:axId val="132512384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100979072"/>
+        <c:crossAx val="132526464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="100979072"/>
+        <c:axId val="132526464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,7 +596,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100977280"/>
+        <c:crossAx val="132512384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -607,7 +609,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -935,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AB4" sqref="AB4:AB15"/>
     </sheetView>
   </sheetViews>
@@ -2392,12 +2394,353 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2096276</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1621947</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2569950</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45777</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2238561</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1801722</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2682601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45808</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2127128</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1670374</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2571736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45838</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1981839</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1519065</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2426010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45869</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2235879</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1776427</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2694119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45900</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1837607</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1353217</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2324254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1713506</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1250103</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2136261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45961</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1837874</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1346038</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2296371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1960126</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1489691</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2415828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>46022</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1939300</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1448074</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2417610</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2167236</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1701213</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2615619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>46081</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2047271</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1580480</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2533225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>46112</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2101621</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1631152</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2579817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>46142</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2247586</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1742821</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2687255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>46173</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2131469</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1661192</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2583543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>46203</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1993376</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1522560</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2432373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>46234</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2250901</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1789736</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2734949</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>46265</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1840420</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1359521</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2265253</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/BCM Model Test.xlsx
+++ b/data/BCM Model Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
   <si>
     <t>Forecasted</t>
   </si>
@@ -53,6 +53,24 @@
   <si>
     <t>2025-03-31:</t>
   </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>18-Month</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>TOT_PAID:</t>
+  </si>
 </sst>
 </file>
 
@@ -60,7 +78,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -111,7 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -119,7 +137,9 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -571,24 +591,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="132512384"/>
-        <c:axId val="132526464"/>
+        <c:axId val="125368960"/>
+        <c:axId val="125448576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="132512384"/>
+        <c:axId val="125368960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132526464"/>
+        <c:crossAx val="125448576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="132526464"/>
+        <c:axId val="125448576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,7 +616,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132512384"/>
+        <c:crossAx val="125368960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -609,7 +629,209 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$I$4:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46053</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46081</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$4:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2259194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2157256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1938206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2280112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1794721</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1779429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1839164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1942990</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1991876</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2210994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2044167</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2133120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$Q$4:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2238561</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2127128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1981839</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2235879</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1837607</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1713506</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1837874</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1960126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1939300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2167236</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2047271</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2101621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="47639936"/>
+        <c:axId val="47649920"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="47639936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="47649920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="47649920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="47639936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -629,6 +851,41 @@
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -938,7 +1195,7 @@
   <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4:AB15"/>
+      <selection activeCell="AA1" sqref="AA1:AD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2394,19 +2651,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C15" sqref="C4:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2419,8 +2681,38 @@
       <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -2433,15 +2725,33 @@
       <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>45747</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>2096276</v>
       </c>
       <c r="D3" s="7">
@@ -2450,15 +2760,37 @@
       <c r="E3" s="7">
         <v>2569950</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45747</v>
+      </c>
+      <c r="J3" s="9">
+        <v>2113651</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="P3" s="1">
+        <v>45747</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>2096276</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1622571</v>
+      </c>
+      <c r="S3" s="3">
+        <v>2550570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>45777</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>2238561</v>
       </c>
       <c r="D4" s="7">
@@ -2467,15 +2799,40 @@
       <c r="E4" s="7">
         <v>2682601</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>45777</v>
+      </c>
+      <c r="J4" s="8">
+        <v>2259194</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" ref="K4:K15" si="0">(J4+C4)/2</f>
+        <v>2248877.5</v>
+      </c>
+      <c r="P4" s="1">
+        <v>45777</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>2238561</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1774251</v>
+      </c>
+      <c r="S4" s="3">
+        <v>2676711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>45808</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>2127128</v>
       </c>
       <c r="D5" s="7">
@@ -2484,15 +2841,40 @@
       <c r="E5" s="7">
         <v>2571736</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>45808</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2157256</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="0"/>
+        <v>2142192</v>
+      </c>
+      <c r="P5" s="1">
+        <v>45808</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>2127128</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1684828</v>
+      </c>
+      <c r="S5" s="3">
+        <v>2589470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>45838</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>1981839</v>
       </c>
       <c r="D6" s="7">
@@ -2501,15 +2883,40 @@
       <c r="E6" s="7">
         <v>2426010</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>45838</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1938206</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>1960022.5</v>
+      </c>
+      <c r="P6" s="1">
+        <v>45838</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>1981839</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1522331</v>
+      </c>
+      <c r="S6" s="3">
+        <v>2408730</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>45869</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>2235879</v>
       </c>
       <c r="D7" s="7">
@@ -2518,15 +2925,40 @@
       <c r="E7" s="7">
         <v>2694119</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>45869</v>
+      </c>
+      <c r="J7" s="8">
+        <v>2280112</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="0"/>
+        <v>2257995.5</v>
+      </c>
+      <c r="P7" s="1">
+        <v>45869</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>2235879</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1778074</v>
+      </c>
+      <c r="S7" s="3">
+        <v>2722366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>45900</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>1837607</v>
       </c>
       <c r="D8" s="7">
@@ -2535,15 +2967,40 @@
       <c r="E8" s="7">
         <v>2324254</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>45900</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1794721</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="0"/>
+        <v>1816164</v>
+      </c>
+      <c r="P8" s="1">
+        <v>45900</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>1837607</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1408867</v>
+      </c>
+      <c r="S8" s="3">
+        <v>2283082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>45930</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>1713506</v>
       </c>
       <c r="D9" s="7">
@@ -2552,15 +3009,40 @@
       <c r="E9" s="7">
         <v>2136261</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1">
+        <v>45930</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1779429</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="0"/>
+        <v>1746467.5</v>
+      </c>
+      <c r="P9" s="1">
+        <v>45930</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1713506</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1223644</v>
+      </c>
+      <c r="S9" s="3">
+        <v>2218710</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>45961</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>1837874</v>
       </c>
       <c r="D10" s="7">
@@ -2569,15 +3051,40 @@
       <c r="E10" s="7">
         <v>2296371</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1">
+        <v>45961</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1839164</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="0"/>
+        <v>1838519</v>
+      </c>
+      <c r="P10" s="1">
+        <v>45961</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>1837874</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1365970</v>
+      </c>
+      <c r="S10" s="3">
+        <v>2287869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>45991</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>1960126</v>
       </c>
       <c r="D11" s="7">
@@ -2586,15 +3093,40 @@
       <c r="E11" s="7">
         <v>2415828</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1">
+        <v>45991</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1942990</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="0"/>
+        <v>1951558</v>
+      </c>
+      <c r="P11" s="1">
+        <v>45991</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>1960126</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1486042</v>
+      </c>
+      <c r="S11" s="3">
+        <v>2444919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>46022</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>1939300</v>
       </c>
       <c r="D12" s="7">
@@ -2603,15 +3135,40 @@
       <c r="E12" s="7">
         <v>2417610</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1">
+        <v>46022</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1991876</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="0"/>
+        <v>1965588</v>
+      </c>
+      <c r="P12" s="1">
+        <v>46022</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>1939300</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1462684</v>
+      </c>
+      <c r="S12" s="3">
+        <v>2417148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>46053</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>2167236</v>
       </c>
       <c r="D13" s="7">
@@ -2620,15 +3177,40 @@
       <c r="E13" s="7">
         <v>2615619</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1">
+        <v>46053</v>
+      </c>
+      <c r="J13" s="8">
+        <v>2210994</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="0"/>
+        <v>2189115</v>
+      </c>
+      <c r="P13" s="1">
+        <v>46053</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>2167236</v>
+      </c>
+      <c r="R13" s="3">
+        <v>1734159</v>
+      </c>
+      <c r="S13" s="3">
+        <v>2639542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" s="1">
         <v>46081</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>2047271</v>
       </c>
       <c r="D14" s="7">
@@ -2637,15 +3219,40 @@
       <c r="E14" s="7">
         <v>2533225</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1">
+        <v>46081</v>
+      </c>
+      <c r="J14" s="8">
+        <v>2044167</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="0"/>
+        <v>2045719</v>
+      </c>
+      <c r="P14" s="1">
+        <v>46081</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>2047271</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1586812</v>
+      </c>
+      <c r="S14" s="3">
+        <v>2473305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" s="1">
         <v>46112</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <v>2101621</v>
       </c>
       <c r="D15" s="7">
@@ -2654,8 +3261,33 @@
       <c r="E15" s="7">
         <v>2579817</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1">
+        <v>46112</v>
+      </c>
+      <c r="J15" s="8">
+        <v>2133120</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="0"/>
+        <v>2117370.5</v>
+      </c>
+      <c r="P15" s="1">
+        <v>46112</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>2101621</v>
+      </c>
+      <c r="R15" s="3">
+        <v>1651125</v>
+      </c>
+      <c r="S15" s="3">
+        <v>2554612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2671,8 +3303,29 @@
       <c r="E16" s="7">
         <v>2687255</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1">
+        <v>46142</v>
+      </c>
+      <c r="J16" s="7">
+        <v>2253332</v>
+      </c>
+      <c r="P16" s="1">
+        <v>46142</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>2247586</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1782926</v>
+      </c>
+      <c r="S16" s="3">
+        <v>2739945</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2688,8 +3341,29 @@
       <c r="E17" s="7">
         <v>2583543</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="H17">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1">
+        <v>46173</v>
+      </c>
+      <c r="J17" s="7">
+        <v>2161632</v>
+      </c>
+      <c r="P17" s="1">
+        <v>46173</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>2131469</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1674667</v>
+      </c>
+      <c r="S17" s="3">
+        <v>2594314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2705,8 +3379,29 @@
       <c r="E18" s="7">
         <v>2432373</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1">
+        <v>46203</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1966041</v>
+      </c>
+      <c r="P18" s="1">
+        <v>46203</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1993376</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1574658</v>
+      </c>
+      <c r="S18" s="3">
+        <v>2449793</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>16</v>
       </c>
@@ -2722,8 +3417,29 @@
       <c r="E19" s="7">
         <v>2734949</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="H19">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1">
+        <v>46234</v>
+      </c>
+      <c r="J19" s="7">
+        <v>2288182</v>
+      </c>
+      <c r="P19" s="1">
+        <v>46234</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>2250901</v>
+      </c>
+      <c r="R19" s="3">
+        <v>1800714</v>
+      </c>
+      <c r="S19" s="3">
+        <v>2725985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>17</v>
       </c>
@@ -2739,9 +3455,32 @@
       <c r="E20" s="7">
         <v>2265253</v>
       </c>
+      <c r="H20">
+        <v>17</v>
+      </c>
+      <c r="I20" s="1">
+        <v>46265</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1804577</v>
+      </c>
+      <c r="P20" s="1">
+        <v>46265</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1840420</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1360260</v>
+      </c>
+      <c r="S20" s="3">
+        <v>2292366</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
